--- a/notebooks/assets/test/RF1G0_1.xlsx
+++ b/notebooks/assets/test/RF1G0_1.xlsx
@@ -467,19 +467,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.473</v>
+        <v>1.019</v>
       </c>
       <c r="C2" t="n">
-        <v>0.768</v>
+        <v>1.086</v>
       </c>
       <c r="D2" t="n">
-        <v>0.837</v>
+        <v>1.336</v>
       </c>
       <c r="E2" t="n">
-        <v>0.658</v>
+        <v>0.769</v>
       </c>
       <c r="F2" t="n">
-        <v>0.873</v>
+        <v>1.44</v>
       </c>
     </row>
     <row r="3">
@@ -489,19 +489,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.387</v>
+        <v>1.633</v>
       </c>
       <c r="C3" t="n">
-        <v>0.962</v>
+        <v>1.818</v>
       </c>
       <c r="D3" t="n">
-        <v>1.153</v>
+        <v>3.181</v>
       </c>
       <c r="E3" t="n">
-        <v>0.851</v>
+        <v>1.026</v>
       </c>
       <c r="F3" t="n">
-        <v>1.32</v>
+        <v>4.476</v>
       </c>
     </row>
     <row r="4">
@@ -533,19 +533,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>18.406</v>
+        <v>18.495</v>
       </c>
       <c r="C5" t="n">
-        <v>15.375</v>
+        <v>15.354</v>
       </c>
       <c r="D5" t="n">
-        <v>17.942</v>
+        <v>17.824</v>
       </c>
       <c r="E5" t="n">
-        <v>12.753</v>
+        <v>12.822</v>
       </c>
       <c r="F5" t="n">
-        <v>30.75</v>
+        <v>30.801</v>
       </c>
     </row>
     <row r="6">
@@ -555,19 +555,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.945</v>
+        <v>0.769</v>
       </c>
       <c r="C6" t="n">
-        <v>0.93</v>
+        <v>0.868</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9429999999999999</v>
+        <v>0.842</v>
       </c>
       <c r="E6" t="n">
-        <v>0.544</v>
+        <v>0.45</v>
       </c>
       <c r="F6" t="n">
-        <v>0.966</v>
+        <v>0.886</v>
       </c>
     </row>
   </sheetData>
